--- a/data/trans_dic/P36BPD04_R1_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R1_2023-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9474461908190377</v>
+        <v>0.9474461908190375</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.960601647671473</v>
+        <v>0.9606016476714732</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.9551616648865191</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9260379376724622</v>
+        <v>0.9265008132774796</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9480793385917277</v>
+        <v>0.9475003055275557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9446123954894792</v>
+        <v>0.9444671608245012</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9645231891699947</v>
+        <v>0.9650580750355484</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9711943811743708</v>
+        <v>0.9700148532841945</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9644160053341194</v>
+        <v>0.9652038046541083</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9315744890465503</v>
+        <v>0.9315744890465502</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.9427513977137468</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9176670595841337</v>
+        <v>0.9180553508407159</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9321668454566696</v>
+        <v>0.9325436417583124</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9283095435336025</v>
+        <v>0.928021044915425</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9447133530133568</v>
+        <v>0.9437189493563636</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9521345599145375</v>
+        <v>0.9524111238097966</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9446750114673669</v>
+        <v>0.9453429111998451</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.9404366779804265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9513380305756637</v>
+        <v>0.9513380305756636</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9440390764662394</v>
+        <v>0.9390984169654207</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9215171020433283</v>
+        <v>0.9196698931650195</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9382913550670868</v>
+        <v>0.938752984130736</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9756564139400966</v>
+        <v>0.9756898517065925</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9561985361459453</v>
+        <v>0.9548285263884945</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9615512341951886</v>
+        <v>0.9624102504946106</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.940455292023891</v>
+        <v>0.9404552920238911</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.946226079896305</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9434227496063433</v>
+        <v>0.9434227496063435</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9292001638440994</v>
+        <v>0.9310703026718236</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.938138238123394</v>
+        <v>0.9378335829828712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9370413043644114</v>
+        <v>0.937199256388607</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9485347445941145</v>
+        <v>0.9491298515693396</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9530125541876047</v>
+        <v>0.9528002337664171</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9488569212525552</v>
+        <v>0.9482194271389917</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>535740</v>
+        <v>536008</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>777921</v>
+        <v>777446</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1321562</v>
+        <v>1321359</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>558005</v>
+        <v>558314</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>796887</v>
+        <v>795919</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1349268</v>
+        <v>1350370</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2045925</v>
+        <v>2046791</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2023048</v>
+        <v>2023866</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4084329</v>
+        <v>4083060</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>2106224</v>
+        <v>2104007</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>2066383</v>
+        <v>2066984</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4156333</v>
+        <v>4159272</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>671766</v>
+        <v>668250</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>677202</v>
+        <v>675844</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1357205</v>
+        <v>1357872</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>694264</v>
+        <v>694288</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>702688</v>
+        <v>701682</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1390849</v>
+        <v>1392092</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3270414</v>
+        <v>3276996</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3495188</v>
+        <v>3494053</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6789113</v>
+        <v>6790257</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3338464</v>
+        <v>3340558</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3550605</v>
+        <v>3549814</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6874720</v>
+        <v>6870101</v>
       </c>
     </row>
     <row r="20">
